--- a/PreliminaryComparisonResults.xlsx
+++ b/PreliminaryComparisonResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="43680" yWindow="2385" windowWidth="34215" windowHeight="20445" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43680" yWindow="2385" windowWidth="34215" windowHeight="20445" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Basic TIA Results" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="740">
   <si>
     <t xml:space="preserve"> 00:00:01.8940000 </t>
   </si>
@@ -1652,6 +1652,600 @@
   </si>
   <si>
     <t>Build Num</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TIA Unanalyzed Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">349_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">348_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">347_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">346_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">345_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">344_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">343_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">342_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">341_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">340_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">339_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">338_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">337_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">336_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">335_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">334_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">333_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">332_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">331_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">330_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">329_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">328_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">327_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">326_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">325_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">324_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">323_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">322_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">321_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">319_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">318_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">317_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">316_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">315_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">314_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">313_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">312_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">311_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">309_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">308_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">307_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">306_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">305_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">304_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">303_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">302_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">301_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">300_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">299_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">298_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">297_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">296_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">295_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">294_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">293_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">292_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">291_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">290_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">289_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">288_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">287_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">286_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">285_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">283_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">281_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">280_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">279_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">278_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">277_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">276_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">275_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">274_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">273_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">272_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">271_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">270_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">269_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">268_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">267_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">266_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">265_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">264_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">263_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">262_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">261_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">260_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">259_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">258_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">257_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">256_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">255_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">254_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">253_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">252_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">251_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">250_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">249_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">248_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">247_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">246_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">245_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">244_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">243_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">242_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">241_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">240_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">239_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">238_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">237_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">236_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">235_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">234_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">233_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">232_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">231_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">230_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">229_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">228_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">227_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">226_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">225_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">224_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">223_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">222_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">221_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">220_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">219_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">218_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">217_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">216_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">215_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">214_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">213_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">212_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">211_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">209_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">208_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">207_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">206_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">205_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">204_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">203_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">201_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">200_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">199_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">198_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">197_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">196_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">195_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">194_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">193_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">192_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">191_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">190_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">189_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">188_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">187_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">186_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">185_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">184_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">183_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">182_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">181_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">180_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">179_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">178_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">177_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">176_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">174_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">173_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">171_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">170_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">169_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">168_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">167_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">166_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">165_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">164_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">163_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">162_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">161_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">160_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">159_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">158_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">157_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">156_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">155_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">154_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">153_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">152_Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">151_Results </t>
   </si>
 </sst>
 </file>
@@ -7692,8 +8286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC04EDCB-4572-48A2-9DE3-34A1025BC934}">
   <dimension ref="A1:N196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:M143"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7707,7 +8301,7 @@
     <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -12554,11 +13148,11 @@
       </c>
       <c r="E133">
         <f>'Raw Basic TIA Results'!D133 - M133</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F133">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H133" t="s">
         <v>377</v>
@@ -12573,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -12591,11 +13185,11 @@
       </c>
       <c r="E134">
         <f>'Raw Basic TIA Results'!D134 - M134</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H134" t="s">
         <v>379</v>
@@ -12610,7 +13204,7 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -12628,11 +13222,11 @@
       </c>
       <c r="E135">
         <f>'Raw Basic TIA Results'!D135 - M135</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H135" t="s">
         <v>335</v>
@@ -12647,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -12665,11 +13259,11 @@
       </c>
       <c r="E136">
         <f>'Raw Basic TIA Results'!D136 - M136</f>
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F136">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="H136" t="s">
         <v>383</v>
@@ -12684,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -12702,11 +13296,11 @@
       </c>
       <c r="E137">
         <f>'Raw Basic TIA Results'!D137 - M137</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H137" t="s">
         <v>386</v>
@@ -12721,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -12739,11 +13333,11 @@
       </c>
       <c r="E138">
         <f>'Raw Basic TIA Results'!D138 - M138</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H138" t="s">
         <v>389</v>
@@ -12758,7 +13352,7 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -12776,11 +13370,11 @@
       </c>
       <c r="E139">
         <f>'Raw Basic TIA Results'!D139 - M139</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H139" t="s">
         <v>377</v>
@@ -12795,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -12813,11 +13407,11 @@
       </c>
       <c r="E140">
         <f>'Raw Basic TIA Results'!D140 - M140</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H140" t="s">
         <v>314</v>
@@ -12832,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -12850,11 +13444,11 @@
       </c>
       <c r="E141">
         <f>'Raw Basic TIA Results'!D141 - M141</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H141" t="s">
         <v>396</v>
@@ -12869,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -12887,11 +13481,11 @@
       </c>
       <c r="E142">
         <f>'Raw Basic TIA Results'!D142 - M142</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="H142" t="s">
         <v>399</v>
@@ -12906,7 +13500,7 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -12924,11 +13518,11 @@
       </c>
       <c r="E143">
         <f>'Raw Basic TIA Results'!D143 - M143</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H143" t="s">
         <v>402</v>
@@ -12943,7 +13537,7 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -12961,11 +13555,11 @@
       </c>
       <c r="E144">
         <f>'Raw Basic TIA Results'!D144 - M144</f>
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="F144">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="H144" t="s">
         <v>308</v>
@@ -12980,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -12998,11 +13592,11 @@
       </c>
       <c r="E145">
         <f>'Raw Basic TIA Results'!D145 - M145</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H145" t="s">
         <v>314</v>
@@ -13017,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -13035,11 +13629,11 @@
       </c>
       <c r="E146">
         <f>'Raw Basic TIA Results'!D146 - M146</f>
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="F146">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="H146" t="s">
         <v>196</v>
@@ -13054,7 +13648,7 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -13072,11 +13666,11 @@
       </c>
       <c r="E147">
         <f>'Raw Basic TIA Results'!D147 - M147</f>
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="F147">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="H147" t="s">
         <v>411</v>
@@ -13091,7 +13685,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -13109,11 +13703,11 @@
       </c>
       <c r="E148">
         <f>'Raw Basic TIA Results'!D148 - M148</f>
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="F148">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="H148" t="s">
         <v>414</v>
@@ -13128,7 +13722,7 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -13146,11 +13740,11 @@
       </c>
       <c r="E149">
         <f>'Raw Basic TIA Results'!D149 - M149</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F149">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H149" t="s">
         <v>417</v>
@@ -13165,7 +13759,7 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -13183,11 +13777,11 @@
       </c>
       <c r="E150">
         <f>'Raw Basic TIA Results'!D150 - M150</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F150">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H150" t="s">
         <v>420</v>
@@ -13202,7 +13796,7 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -13220,11 +13814,11 @@
       </c>
       <c r="E151">
         <f>'Raw Basic TIA Results'!D151 - M151</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F151">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H151" t="s">
         <v>420</v>
@@ -13239,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -13257,11 +13851,11 @@
       </c>
       <c r="E152">
         <f>'Raw Basic TIA Results'!D152 - M152</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F152">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H152" t="s">
         <v>2</v>
@@ -13276,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -13294,11 +13888,11 @@
       </c>
       <c r="E153">
         <f>'Raw Basic TIA Results'!D153 - M153</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F153">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H153" t="s">
         <v>426</v>
@@ -13313,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -13331,11 +13925,11 @@
       </c>
       <c r="E154">
         <f>'Raw Basic TIA Results'!D154 - M154</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F154">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H154" t="s">
         <v>429</v>
@@ -13350,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -13368,11 +13962,11 @@
       </c>
       <c r="E155">
         <f>'Raw Basic TIA Results'!D155 - M155</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F155">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H155" t="s">
         <v>431</v>
@@ -13387,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -13405,11 +13999,11 @@
       </c>
       <c r="E156">
         <f>'Raw Basic TIA Results'!D156 - M156</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F156">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H156" t="s">
         <v>434</v>
@@ -13424,7 +14018,7 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -13442,11 +14036,11 @@
       </c>
       <c r="E157">
         <f>'Raw Basic TIA Results'!D157 - M157</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H157" t="s">
         <v>437</v>
@@ -13461,7 +14055,7 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -13479,11 +14073,11 @@
       </c>
       <c r="E158">
         <f>'Raw Basic TIA Results'!D158 - M158</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H158" t="s">
         <v>440</v>
@@ -13498,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -13516,11 +14110,11 @@
       </c>
       <c r="E159">
         <f>'Raw Basic TIA Results'!D159 - M159</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <f t="shared" ref="F159:F196" si="2">D159-E159</f>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H159" t="s">
         <v>402</v>
@@ -13535,7 +14129,7 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -13553,11 +14147,11 @@
       </c>
       <c r="E160">
         <f>'Raw Basic TIA Results'!D160 - M160</f>
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="F160">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="H160" t="s">
         <v>417</v>
@@ -13572,7 +14166,7 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -13590,11 +14184,11 @@
       </c>
       <c r="E161">
         <f>'Raw Basic TIA Results'!D161 - M161</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F161">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H161" t="s">
         <v>446</v>
@@ -13609,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -13627,11 +14221,11 @@
       </c>
       <c r="E162">
         <f>'Raw Basic TIA Results'!D162 - M162</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F162">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H162" t="s">
         <v>449</v>
@@ -13646,7 +14240,7 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -13664,11 +14258,11 @@
       </c>
       <c r="E163">
         <f>'Raw Basic TIA Results'!D163 - M163</f>
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F163">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H163" t="s">
         <v>196</v>
@@ -13683,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -13701,11 +14295,11 @@
       </c>
       <c r="E164">
         <f>'Raw Basic TIA Results'!D164 - M164</f>
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="F164">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="H164" t="s">
         <v>290</v>
@@ -13720,7 +14314,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -13738,11 +14332,11 @@
       </c>
       <c r="E165">
         <f>'Raw Basic TIA Results'!D165 - M165</f>
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F165">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H165" t="s">
         <v>338</v>
@@ -13757,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -13775,11 +14369,11 @@
       </c>
       <c r="E166">
         <f>'Raw Basic TIA Results'!D166 - M166</f>
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="F166">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="H166" t="s">
         <v>458</v>
@@ -13794,7 +14388,7 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -13812,11 +14406,11 @@
       </c>
       <c r="E167">
         <f>'Raw Basic TIA Results'!D167 - M167</f>
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F167">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H167" t="s">
         <v>461</v>
@@ -13831,7 +14425,7 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -13849,11 +14443,11 @@
       </c>
       <c r="E168">
         <f>'Raw Basic TIA Results'!D168 - M168</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F168">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H168" t="s">
         <v>464</v>
@@ -13868,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -13886,11 +14480,11 @@
       </c>
       <c r="E169">
         <f>'Raw Basic TIA Results'!D169 - M169</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F169">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H169" t="s">
         <v>467</v>
@@ -13905,7 +14499,7 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -13923,11 +14517,11 @@
       </c>
       <c r="E170">
         <f>'Raw Basic TIA Results'!D170 - M170</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F170">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H170" t="s">
         <v>196</v>
@@ -13942,7 +14536,7 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -13960,11 +14554,11 @@
       </c>
       <c r="E171">
         <f>'Raw Basic TIA Results'!D171 - M171</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F171">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H171" t="s">
         <v>335</v>
@@ -13979,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="M171">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -13997,11 +14591,11 @@
       </c>
       <c r="E172">
         <f>'Raw Basic TIA Results'!D172 - M172</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F172">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H172" t="s">
         <v>473</v>
@@ -14016,7 +14610,7 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -14034,11 +14628,11 @@
       </c>
       <c r="E173">
         <f>'Raw Basic TIA Results'!D173 - M173</f>
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="F173">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="H173" t="s">
         <v>426</v>
@@ -14053,7 +14647,7 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -14071,11 +14665,11 @@
       </c>
       <c r="E174">
         <f>'Raw Basic TIA Results'!D174 - M174</f>
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F174">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H174" t="s">
         <v>478</v>
@@ -14090,7 +14684,7 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -14108,11 +14702,11 @@
       </c>
       <c r="E175">
         <f>'Raw Basic TIA Results'!D175 - M175</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F175">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H175" t="s">
         <v>481</v>
@@ -14127,7 +14721,7 @@
         <v>0</v>
       </c>
       <c r="M175">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -14145,11 +14739,11 @@
       </c>
       <c r="E176">
         <f>'Raw Basic TIA Results'!D176 - M176</f>
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F176">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H176" t="s">
         <v>327</v>
@@ -14164,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -14182,11 +14776,11 @@
       </c>
       <c r="E177">
         <f>'Raw Basic TIA Results'!D177 - M177</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F177">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H177" t="s">
         <v>399</v>
@@ -14201,7 +14795,7 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -14219,11 +14813,11 @@
       </c>
       <c r="E178">
         <f>'Raw Basic TIA Results'!D178 - M178</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F178">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H178" t="s">
         <v>487</v>
@@ -14238,7 +14832,7 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -14256,11 +14850,11 @@
       </c>
       <c r="E179">
         <f>'Raw Basic TIA Results'!D179 - M179</f>
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F179">
         <f t="shared" si="2"/>
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="H179" t="s">
         <v>490</v>
@@ -14275,7 +14869,7 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -14293,11 +14887,11 @@
       </c>
       <c r="E180">
         <f>'Raw Basic TIA Results'!D180 - M180</f>
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="F180">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="H180" t="s">
         <v>493</v>
@@ -14312,7 +14906,7 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -14330,11 +14924,11 @@
       </c>
       <c r="E181">
         <f>'Raw Basic TIA Results'!D181 - M181</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F181">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H181" t="s">
         <v>496</v>
@@ -14349,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -14367,11 +14961,11 @@
       </c>
       <c r="E182">
         <f>'Raw Basic TIA Results'!D182 - M182</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F182">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H182" t="s">
         <v>499</v>
@@ -14386,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -14404,11 +14998,11 @@
       </c>
       <c r="E183">
         <f>'Raw Basic TIA Results'!D183 - M183</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F183">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H183" t="s">
         <v>502</v>
@@ -14423,7 +15017,7 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -14441,11 +15035,11 @@
       </c>
       <c r="E184">
         <f>'Raw Basic TIA Results'!D184 - M184</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F184">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H184" t="s">
         <v>505</v>
@@ -14460,7 +15054,7 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -14478,11 +15072,11 @@
       </c>
       <c r="E185">
         <f>'Raw Basic TIA Results'!D185 - M185</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F185">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H185" t="s">
         <v>508</v>
@@ -14497,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -14515,11 +15109,11 @@
       </c>
       <c r="E186">
         <f>'Raw Basic TIA Results'!D186 - M186</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F186">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H186" t="s">
         <v>329</v>
@@ -14534,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="M186">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -14552,11 +15146,11 @@
       </c>
       <c r="E187">
         <f>'Raw Basic TIA Results'!D187 - M187</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F187">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H187" t="s">
         <v>513</v>
@@ -14571,7 +15165,7 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -14589,11 +15183,11 @@
       </c>
       <c r="E188">
         <f>'Raw Basic TIA Results'!D188 - M188</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F188">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H188" t="s">
         <v>516</v>
@@ -14608,7 +15202,7 @@
         <v>0</v>
       </c>
       <c r="M188">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -14626,11 +15220,11 @@
       </c>
       <c r="E189">
         <f>'Raw Basic TIA Results'!D189 - M189</f>
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F189">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H189" t="s">
         <v>519</v>
@@ -14645,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -14663,11 +15257,11 @@
       </c>
       <c r="E190">
         <f>'Raw Basic TIA Results'!D190 - M190</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F190">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H190" t="s">
         <v>522</v>
@@ -14682,7 +15276,7 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -14700,11 +15294,11 @@
       </c>
       <c r="E191">
         <f>'Raw Basic TIA Results'!D191 - M191</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F191">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H191" t="s">
         <v>525</v>
@@ -14719,7 +15313,7 @@
         <v>0</v>
       </c>
       <c r="M191">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -14737,11 +15331,11 @@
       </c>
       <c r="E192">
         <f>'Raw Basic TIA Results'!D192 - M192</f>
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="F192">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="H192" t="s">
         <v>528</v>
@@ -14756,7 +15350,7 @@
         <v>0</v>
       </c>
       <c r="M192">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -14774,11 +15368,11 @@
       </c>
       <c r="E193">
         <f>'Raw Basic TIA Results'!D193 - M193</f>
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F193">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="H193" t="s">
         <v>531</v>
@@ -14793,7 +15387,7 @@
         <v>0</v>
       </c>
       <c r="M193">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -14811,11 +15405,11 @@
       </c>
       <c r="E194">
         <f>'Raw Basic TIA Results'!D194 - M194</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F194">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H194" t="s">
         <v>272</v>
@@ -14830,7 +15424,7 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -14848,11 +15442,11 @@
       </c>
       <c r="E195">
         <f>'Raw Basic TIA Results'!D195 - M195</f>
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F195">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H195" t="s">
         <v>536</v>
@@ -14867,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -14885,11 +15479,11 @@
       </c>
       <c r="E196">
         <f>'Raw Basic TIA Results'!D196 - M196</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F196">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H196" t="s">
         <v>539</v>
@@ -14904,7 +15498,7 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -14914,12 +15508,3382 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEECE730-21E7-419E-BD64-0A8BE5C3D881}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="N187" sqref="N187"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B2">
+        <v>0.87621899999999997</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B5">
+        <v>0.62956599999999996</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>551</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>553</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>554</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>555</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>556</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>557</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>558</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>559</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>560</v>
+      </c>
+      <c r="B19">
+        <v>0.66245799999999999</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>561</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>562</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>563</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>564</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>565</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>566</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>567</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>568</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>569</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>570</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>571</v>
+      </c>
+      <c r="B30">
+        <v>1.8441959999999999</v>
+      </c>
+      <c r="C30">
+        <v>92</v>
+      </c>
+      <c r="D30">
+        <v>88</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>572</v>
+      </c>
+      <c r="B31">
+        <v>3.1230000000000001E-2</v>
+      </c>
+      <c r="C31">
+        <v>92</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>573</v>
+      </c>
+      <c r="B32">
+        <v>0.83698099999999998</v>
+      </c>
+      <c r="C32">
+        <v>102</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>574</v>
+      </c>
+      <c r="B33">
+        <v>1.8007519999999999</v>
+      </c>
+      <c r="C33">
+        <v>158</v>
+      </c>
+      <c r="D33">
+        <v>57</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>575</v>
+      </c>
+      <c r="B34">
+        <v>5.4580000000000002E-3</v>
+      </c>
+      <c r="C34">
+        <v>158</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>576</v>
+      </c>
+      <c r="B35">
+        <v>0.60311300000000001</v>
+      </c>
+      <c r="C35">
+        <v>158</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>577</v>
+      </c>
+      <c r="B36">
+        <v>2.7908590000000002</v>
+      </c>
+      <c r="C36">
+        <v>158</v>
+      </c>
+      <c r="D36">
+        <v>156</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>578</v>
+      </c>
+      <c r="B37">
+        <v>0.68521600000000005</v>
+      </c>
+      <c r="C37">
+        <v>158</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>579</v>
+      </c>
+      <c r="B38">
+        <v>0.65907499999999997</v>
+      </c>
+      <c r="C38">
+        <v>158</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>580</v>
+      </c>
+      <c r="B39">
+        <v>0.59633199999999997</v>
+      </c>
+      <c r="C39">
+        <v>158</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>581</v>
+      </c>
+      <c r="B40">
+        <v>1.6472039999999999</v>
+      </c>
+      <c r="C40">
+        <v>158</v>
+      </c>
+      <c r="D40">
+        <v>55</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>582</v>
+      </c>
+      <c r="B41">
+        <v>2.9824380000000001</v>
+      </c>
+      <c r="C41">
+        <v>158</v>
+      </c>
+      <c r="D41">
+        <v>155</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>583</v>
+      </c>
+      <c r="B42">
+        <v>4.7850000000000002E-3</v>
+      </c>
+      <c r="C42">
+        <v>158</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>584</v>
+      </c>
+      <c r="B43">
+        <v>4.81E-3</v>
+      </c>
+      <c r="C43">
+        <v>158</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>585</v>
+      </c>
+      <c r="B44">
+        <v>5.568E-3</v>
+      </c>
+      <c r="C44">
+        <v>158</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>586</v>
+      </c>
+      <c r="B45">
+        <v>5.2769999999999996E-3</v>
+      </c>
+      <c r="C45">
+        <v>158</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>587</v>
+      </c>
+      <c r="B46">
+        <v>5.2680000000000001E-3</v>
+      </c>
+      <c r="C46">
+        <v>158</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>588</v>
+      </c>
+      <c r="B47">
+        <v>4.9849999999999998E-3</v>
+      </c>
+      <c r="C47">
+        <v>158</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>589</v>
+      </c>
+      <c r="B48">
+        <v>6.4440000000000001E-3</v>
+      </c>
+      <c r="C48">
+        <v>158</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>590</v>
+      </c>
+      <c r="B49">
+        <v>0.92525800000000002</v>
+      </c>
+      <c r="C49">
+        <v>158</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>591</v>
+      </c>
+      <c r="B50">
+        <v>5.5269999999999998E-3</v>
+      </c>
+      <c r="C50">
+        <v>158</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>592</v>
+      </c>
+      <c r="B51">
+        <v>5.0029999999999996E-3</v>
+      </c>
+      <c r="C51">
+        <v>158</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>593</v>
+      </c>
+      <c r="B52">
+        <v>5.2009999999999999E-3</v>
+      </c>
+      <c r="C52">
+        <v>158</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>594</v>
+      </c>
+      <c r="B53">
+        <v>5.0809999999999996E-3</v>
+      </c>
+      <c r="C53">
+        <v>158</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>595</v>
+      </c>
+      <c r="B54">
+        <v>5.3749999999999996E-3</v>
+      </c>
+      <c r="C54">
+        <v>158</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>596</v>
+      </c>
+      <c r="B55">
+        <v>5.3309999999999998E-3</v>
+      </c>
+      <c r="C55">
+        <v>158</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>597</v>
+      </c>
+      <c r="B56">
+        <v>5.2030000000000002E-3</v>
+      </c>
+      <c r="C56">
+        <v>158</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>598</v>
+      </c>
+      <c r="B57">
+        <v>2.9271579999999999</v>
+      </c>
+      <c r="C57">
+        <v>158</v>
+      </c>
+      <c r="D57">
+        <v>156</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>599</v>
+      </c>
+      <c r="B58">
+        <v>2.9421970000000002</v>
+      </c>
+      <c r="C58">
+        <v>158</v>
+      </c>
+      <c r="D58">
+        <v>156</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>600</v>
+      </c>
+      <c r="B59">
+        <v>8.8610000000000008E-3</v>
+      </c>
+      <c r="C59">
+        <v>158</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>601</v>
+      </c>
+      <c r="B60">
+        <v>5.6410000000000002E-3</v>
+      </c>
+      <c r="C60">
+        <v>158</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>602</v>
+      </c>
+      <c r="B61">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="C61">
+        <v>158</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>603</v>
+      </c>
+      <c r="B62">
+        <v>2.8880309999999998</v>
+      </c>
+      <c r="C62">
+        <v>158</v>
+      </c>
+      <c r="D62">
+        <v>156</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>604</v>
+      </c>
+      <c r="B63">
+        <v>3.1031759999999999</v>
+      </c>
+      <c r="C63">
+        <v>158</v>
+      </c>
+      <c r="D63">
+        <v>156</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>605</v>
+      </c>
+      <c r="B64">
+        <v>8.5660000000000007E-3</v>
+      </c>
+      <c r="C64">
+        <v>158</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>606</v>
+      </c>
+      <c r="B65">
+        <v>5.738E-3</v>
+      </c>
+      <c r="C65">
+        <v>158</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>607</v>
+      </c>
+      <c r="B66">
+        <v>5.3530000000000001E-3</v>
+      </c>
+      <c r="C66">
+        <v>158</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>608</v>
+      </c>
+      <c r="B67">
+        <v>0.58665</v>
+      </c>
+      <c r="C67">
+        <v>158</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>609</v>
+      </c>
+      <c r="B68">
+        <v>1.2059500000000001</v>
+      </c>
+      <c r="C68">
+        <v>158</v>
+      </c>
+      <c r="D68">
+        <v>14</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>610</v>
+      </c>
+      <c r="B69">
+        <v>2.4691700000000001</v>
+      </c>
+      <c r="C69">
+        <v>158</v>
+      </c>
+      <c r="D69">
+        <v>144</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>611</v>
+      </c>
+      <c r="B70">
+        <v>5.1209999999999997E-3</v>
+      </c>
+      <c r="C70">
+        <v>158</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>612</v>
+      </c>
+      <c r="B71">
+        <v>5.391E-3</v>
+      </c>
+      <c r="C71">
+        <v>158</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>613</v>
+      </c>
+      <c r="B72">
+        <v>2.9889899999999998</v>
+      </c>
+      <c r="C72">
+        <v>158</v>
+      </c>
+      <c r="D72">
+        <v>156</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>614</v>
+      </c>
+      <c r="B73">
+        <v>5.241E-3</v>
+      </c>
+      <c r="C73">
+        <v>158</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>615</v>
+      </c>
+      <c r="B74">
+        <v>5.3379999999999999E-3</v>
+      </c>
+      <c r="C74">
+        <v>158</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>616</v>
+      </c>
+      <c r="B75">
+        <v>0.62971100000000002</v>
+      </c>
+      <c r="C75">
+        <v>158</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>617</v>
+      </c>
+      <c r="B76">
+        <v>0.906281</v>
+      </c>
+      <c r="C76">
+        <v>158</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>618</v>
+      </c>
+      <c r="B77">
+        <v>0.82305499999999998</v>
+      </c>
+      <c r="C77">
+        <v>158</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>619</v>
+      </c>
+      <c r="B78">
+        <v>5.215E-3</v>
+      </c>
+      <c r="C78">
+        <v>158</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>620</v>
+      </c>
+      <c r="B79">
+        <v>5.2170000000000003E-3</v>
+      </c>
+      <c r="C79">
+        <v>158</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>621</v>
+      </c>
+      <c r="B80">
+        <v>5.9500000000000004E-3</v>
+      </c>
+      <c r="C80">
+        <v>158</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>622</v>
+      </c>
+      <c r="B81">
+        <v>9.1269999999999997E-3</v>
+      </c>
+      <c r="C81">
+        <v>158</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>623</v>
+      </c>
+      <c r="B82">
+        <v>0.73352799999999996</v>
+      </c>
+      <c r="C82">
+        <v>162</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>624</v>
+      </c>
+      <c r="B83">
+        <v>5.6550000000000003E-3</v>
+      </c>
+      <c r="C83">
+        <v>158</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>625</v>
+      </c>
+      <c r="B84">
+        <v>0.36296099999999998</v>
+      </c>
+      <c r="C84">
+        <v>170</v>
+      </c>
+      <c r="D84">
+        <v>12</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>626</v>
+      </c>
+      <c r="B85">
+        <v>0.20951800000000001</v>
+      </c>
+      <c r="C85">
+        <v>169</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>627</v>
+      </c>
+      <c r="B86">
+        <v>2.7852670000000002</v>
+      </c>
+      <c r="C86">
+        <v>169</v>
+      </c>
+      <c r="D86">
+        <v>146</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>628</v>
+      </c>
+      <c r="B87">
+        <v>1.2550829999999999</v>
+      </c>
+      <c r="C87">
+        <v>169</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>629</v>
+      </c>
+      <c r="B88">
+        <v>5.4070000000000003E-3</v>
+      </c>
+      <c r="C88">
+        <v>169</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>630</v>
+      </c>
+      <c r="B89">
+        <v>2.7238310000000001</v>
+      </c>
+      <c r="C89">
+        <v>169</v>
+      </c>
+      <c r="D89">
+        <v>144</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>631</v>
+      </c>
+      <c r="B90">
+        <v>5.4549999999999998E-3</v>
+      </c>
+      <c r="C90">
+        <v>169</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>632</v>
+      </c>
+      <c r="B91">
+        <v>5.3189999999999999E-3</v>
+      </c>
+      <c r="C91">
+        <v>169</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>633</v>
+      </c>
+      <c r="B92">
+        <v>5.5919999999999997E-3</v>
+      </c>
+      <c r="C92">
+        <v>169</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>634</v>
+      </c>
+      <c r="B93">
+        <v>5.3569999999999998E-3</v>
+      </c>
+      <c r="C93">
+        <v>169</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>635</v>
+      </c>
+      <c r="B94">
+        <v>4.9630000000000004E-3</v>
+      </c>
+      <c r="C94">
+        <v>169</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>636</v>
+      </c>
+      <c r="B95">
+        <v>0.44345099999999998</v>
+      </c>
+      <c r="C95">
+        <v>173</v>
+      </c>
+      <c r="D95">
+        <v>8</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>637</v>
+      </c>
+      <c r="B96">
+        <v>5.3179999999999998E-3</v>
+      </c>
+      <c r="C96">
+        <v>173</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>638</v>
+      </c>
+      <c r="B97">
+        <v>5.8479999999999999E-3</v>
+      </c>
+      <c r="C97">
+        <v>173</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>639</v>
+      </c>
+      <c r="B98">
+        <v>9.5113000000000003E-2</v>
+      </c>
+      <c r="C98">
+        <v>177</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>640</v>
+      </c>
+      <c r="B99">
+        <v>5.47E-3</v>
+      </c>
+      <c r="C99">
+        <v>177</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>641</v>
+      </c>
+      <c r="B100">
+        <v>3.5044789999999999</v>
+      </c>
+      <c r="C100">
+        <v>177</v>
+      </c>
+      <c r="D100">
+        <v>164</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>642</v>
+      </c>
+      <c r="B101">
+        <v>5.3689999999999996E-3</v>
+      </c>
+      <c r="C101">
+        <v>177</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>643</v>
+      </c>
+      <c r="B102">
+        <v>5.8473999999999998E-2</v>
+      </c>
+      <c r="C102">
+        <v>174</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>644</v>
+      </c>
+      <c r="B103">
+        <v>3.6194649999999999</v>
+      </c>
+      <c r="C103">
+        <v>174</v>
+      </c>
+      <c r="D103">
+        <v>164</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>645</v>
+      </c>
+      <c r="B104">
+        <v>5.4310000000000001E-3</v>
+      </c>
+      <c r="C104">
+        <v>174</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>646</v>
+      </c>
+      <c r="B105">
+        <v>5.1640000000000002E-3</v>
+      </c>
+      <c r="C105">
+        <v>174</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>647</v>
+      </c>
+      <c r="B106">
+        <v>3.5264449999999998</v>
+      </c>
+      <c r="C106">
+        <v>174</v>
+      </c>
+      <c r="D106">
+        <v>167</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>648</v>
+      </c>
+      <c r="B107">
+        <v>5.6969999999999998E-3</v>
+      </c>
+      <c r="C107">
+        <v>174</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>649</v>
+      </c>
+      <c r="B108">
+        <v>2.0781770000000002</v>
+      </c>
+      <c r="C108">
+        <v>174</v>
+      </c>
+      <c r="D108">
+        <v>54</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>650</v>
+      </c>
+      <c r="B109">
+        <v>5.4299999999999999E-3</v>
+      </c>
+      <c r="C109">
+        <v>174</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>651</v>
+      </c>
+      <c r="B110">
+        <v>5.1050000000000002E-3</v>
+      </c>
+      <c r="C110">
+        <v>174</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>652</v>
+      </c>
+      <c r="B111">
+        <v>0.36636400000000002</v>
+      </c>
+      <c r="C111">
+        <v>178</v>
+      </c>
+      <c r="D111">
+        <v>12</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>653</v>
+      </c>
+      <c r="B112">
+        <v>5.3829999999999998E-3</v>
+      </c>
+      <c r="C112">
+        <v>178</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>654</v>
+      </c>
+      <c r="B113">
+        <v>5.3749999999999996E-3</v>
+      </c>
+      <c r="C113">
+        <v>178</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>655</v>
+      </c>
+      <c r="B114">
+        <v>5.2459999999999998E-3</v>
+      </c>
+      <c r="C114">
+        <v>178</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>656</v>
+      </c>
+      <c r="B115">
+        <v>5.3400000000000001E-3</v>
+      </c>
+      <c r="C115">
+        <v>178</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>657</v>
+      </c>
+      <c r="B116">
+        <v>5.2900000000000004E-3</v>
+      </c>
+      <c r="C116">
+        <v>178</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>658</v>
+      </c>
+      <c r="B117">
+        <v>5.3540000000000003E-3</v>
+      </c>
+      <c r="C117">
+        <v>178</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>659</v>
+      </c>
+      <c r="B118">
+        <v>5.679E-3</v>
+      </c>
+      <c r="C118">
+        <v>178</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>660</v>
+      </c>
+      <c r="B119">
+        <v>6.0289999999999996E-3</v>
+      </c>
+      <c r="C119">
+        <v>178</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>661</v>
+      </c>
+      <c r="B120">
+        <v>5.3819999999999996E-3</v>
+      </c>
+      <c r="C120">
+        <v>178</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>662</v>
+      </c>
+      <c r="B121">
+        <v>5.28E-3</v>
+      </c>
+      <c r="C121">
+        <v>178</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>663</v>
+      </c>
+      <c r="B122">
+        <v>5.2769999999999996E-3</v>
+      </c>
+      <c r="C122">
+        <v>178</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>664</v>
+      </c>
+      <c r="B123">
+        <v>5.3429999999999997E-3</v>
+      </c>
+      <c r="C123">
+        <v>178</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>665</v>
+      </c>
+      <c r="B124">
+        <v>2.0073859999999999</v>
+      </c>
+      <c r="C124">
+        <v>178</v>
+      </c>
+      <c r="D124">
+        <v>54</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>666</v>
+      </c>
+      <c r="B125">
+        <v>4.2149070000000002</v>
+      </c>
+      <c r="C125">
+        <v>178</v>
+      </c>
+      <c r="D125">
+        <v>156</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>667</v>
+      </c>
+      <c r="B126">
+        <v>3.9015249999999999</v>
+      </c>
+      <c r="C126">
+        <v>178</v>
+      </c>
+      <c r="D126">
+        <v>154</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>668</v>
+      </c>
+      <c r="B127">
+        <v>2.0701200000000002</v>
+      </c>
+      <c r="C127">
+        <v>178</v>
+      </c>
+      <c r="D127">
+        <v>54</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>669</v>
+      </c>
+      <c r="B128">
+        <v>4.1885060000000003</v>
+      </c>
+      <c r="C128">
+        <v>178</v>
+      </c>
+      <c r="D128">
+        <v>156</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>670</v>
+      </c>
+      <c r="B129">
+        <v>5.718E-3</v>
+      </c>
+      <c r="C129">
+        <v>178</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>671</v>
+      </c>
+      <c r="B130">
+        <v>6.7510000000000001E-3</v>
+      </c>
+      <c r="C130">
+        <v>178</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>672</v>
+      </c>
+      <c r="B131">
+        <v>5.3470000000000002E-3</v>
+      </c>
+      <c r="C131">
+        <v>178</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>673</v>
+      </c>
+      <c r="B132">
+        <v>8.9859999999999992E-3</v>
+      </c>
+      <c r="C132">
+        <v>178</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>674</v>
+      </c>
+      <c r="B133">
+        <v>4.1114699999999997</v>
+      </c>
+      <c r="C133">
+        <v>188</v>
+      </c>
+      <c r="D133">
+        <v>168</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>675</v>
+      </c>
+      <c r="B134">
+        <v>6.1910000000000003E-3</v>
+      </c>
+      <c r="C134">
+        <v>188</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>676</v>
+      </c>
+      <c r="B135">
+        <v>5.4650000000000002E-3</v>
+      </c>
+      <c r="C135">
+        <v>188</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>677</v>
+      </c>
+      <c r="B136">
+        <v>5.4879999999999998E-3</v>
+      </c>
+      <c r="C136">
+        <v>188</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>678</v>
+      </c>
+      <c r="B137">
+        <v>2.566373</v>
+      </c>
+      <c r="C137">
+        <v>188</v>
+      </c>
+      <c r="D137">
+        <v>144</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>679</v>
+      </c>
+      <c r="B138">
+        <v>5.3699999999999998E-3</v>
+      </c>
+      <c r="C138">
+        <v>188</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>680</v>
+      </c>
+      <c r="B139">
+        <v>5.3249999999999999E-3</v>
+      </c>
+      <c r="C139">
+        <v>188</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>681</v>
+      </c>
+      <c r="B140">
+        <v>5.28E-3</v>
+      </c>
+      <c r="C140">
+        <v>188</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>682</v>
+      </c>
+      <c r="B141">
+        <v>5.4689999999999999E-3</v>
+      </c>
+      <c r="C141">
+        <v>188</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>683</v>
+      </c>
+      <c r="B142">
+        <v>5.64E-3</v>
+      </c>
+      <c r="C142">
+        <v>188</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>684</v>
+      </c>
+      <c r="B143">
+        <v>5.4089999999999997E-3</v>
+      </c>
+      <c r="C143">
+        <v>188</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>685</v>
+      </c>
+      <c r="B144">
+        <v>0.64298699999999998</v>
+      </c>
+      <c r="C144">
+        <v>190</v>
+      </c>
+      <c r="D144">
+        <v>12</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>686</v>
+      </c>
+      <c r="B145">
+        <v>5.62E-3</v>
+      </c>
+      <c r="C145">
+        <v>190</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>687</v>
+      </c>
+      <c r="B146">
+        <v>6.1919999999999996E-3</v>
+      </c>
+      <c r="C146">
+        <v>190</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>688</v>
+      </c>
+      <c r="B147">
+        <v>4.1083860000000003</v>
+      </c>
+      <c r="C147">
+        <v>190</v>
+      </c>
+      <c r="D147">
+        <v>183</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>689</v>
+      </c>
+      <c r="B148">
+        <v>5.5830000000000003E-3</v>
+      </c>
+      <c r="C148">
+        <v>190</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>690</v>
+      </c>
+      <c r="B149">
+        <v>3.478539</v>
+      </c>
+      <c r="C149">
+        <v>190</v>
+      </c>
+      <c r="D149">
+        <v>156</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>691</v>
+      </c>
+      <c r="B150">
+        <v>5.4250000000000001E-3</v>
+      </c>
+      <c r="C150">
+        <v>190</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>692</v>
+      </c>
+      <c r="B151">
+        <v>5.6849999999999999E-3</v>
+      </c>
+      <c r="C151">
+        <v>190</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>693</v>
+      </c>
+      <c r="B152">
+        <v>5.4879999999999998E-3</v>
+      </c>
+      <c r="C152">
+        <v>190</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>694</v>
+      </c>
+      <c r="B153">
+        <v>5.3020000000000003E-3</v>
+      </c>
+      <c r="C153">
+        <v>190</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>695</v>
+      </c>
+      <c r="B154">
+        <v>5.2960000000000004E-3</v>
+      </c>
+      <c r="C154">
+        <v>190</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>696</v>
+      </c>
+      <c r="B155">
+        <v>5.535E-3</v>
+      </c>
+      <c r="C155">
+        <v>190</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>697</v>
+      </c>
+      <c r="B156">
+        <v>5.293E-3</v>
+      </c>
+      <c r="C156">
+        <v>190</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>698</v>
+      </c>
+      <c r="B157">
+        <v>5.2300000000000003E-3</v>
+      </c>
+      <c r="C157">
+        <v>190</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>699</v>
+      </c>
+      <c r="B158">
+        <v>5.3189999999999999E-3</v>
+      </c>
+      <c r="C158">
+        <v>190</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>700</v>
+      </c>
+      <c r="B159">
+        <v>5.2630000000000003E-3</v>
+      </c>
+      <c r="C159">
+        <v>190</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>701</v>
+      </c>
+      <c r="B160">
+        <v>5.4660000000000004E-3</v>
+      </c>
+      <c r="C160">
+        <v>190</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>702</v>
+      </c>
+      <c r="B161">
+        <v>4.7261550000000003</v>
+      </c>
+      <c r="C161">
+        <v>190</v>
+      </c>
+      <c r="D161">
+        <v>180</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>703</v>
+      </c>
+      <c r="B162">
+        <v>5.3330000000000001E-3</v>
+      </c>
+      <c r="C162">
+        <v>190</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>704</v>
+      </c>
+      <c r="B163">
+        <v>5.8849999999999996E-3</v>
+      </c>
+      <c r="C163">
+        <v>190</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>705</v>
+      </c>
+      <c r="B164">
+        <v>3.9530120000000002</v>
+      </c>
+      <c r="C164">
+        <v>190</v>
+      </c>
+      <c r="D164">
+        <v>180</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>706</v>
+      </c>
+      <c r="B165">
+        <v>5.5389999999999997E-3</v>
+      </c>
+      <c r="C165">
+        <v>190</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>707</v>
+      </c>
+      <c r="B166">
+        <v>3.9286750000000001</v>
+      </c>
+      <c r="C166">
+        <v>190</v>
+      </c>
+      <c r="D166">
+        <v>180</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>708</v>
+      </c>
+      <c r="B167">
+        <v>5.483E-3</v>
+      </c>
+      <c r="C167">
+        <v>190</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>709</v>
+      </c>
+      <c r="B168">
+        <v>4.3480350000000003</v>
+      </c>
+      <c r="C168">
+        <v>190</v>
+      </c>
+      <c r="D168">
+        <v>180</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>710</v>
+      </c>
+      <c r="B169">
+        <v>5.4200000000000003E-3</v>
+      </c>
+      <c r="C169">
+        <v>190</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>711</v>
+      </c>
+      <c r="B170">
+        <v>4.8939999999999999E-3</v>
+      </c>
+      <c r="C170">
+        <v>190</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>712</v>
+      </c>
+      <c r="B171">
+        <v>7.0179999999999999E-3</v>
+      </c>
+      <c r="C171">
+        <v>190</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>713</v>
+      </c>
+      <c r="B172">
+        <v>1.1143999999999999E-2</v>
+      </c>
+      <c r="C172">
+        <v>190</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>714</v>
+      </c>
+      <c r="B173">
+        <v>5.4660000000000004E-3</v>
+      </c>
+      <c r="C173">
+        <v>190</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>715</v>
+      </c>
+      <c r="B174">
+        <v>5.2269999999999999E-3</v>
+      </c>
+      <c r="C174">
+        <v>190</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>716</v>
+      </c>
+      <c r="B175">
+        <v>4.2614479999999997</v>
+      </c>
+      <c r="C175">
+        <v>190</v>
+      </c>
+      <c r="D175">
+        <v>180</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>717</v>
+      </c>
+      <c r="B176">
+        <v>5.3080000000000002E-3</v>
+      </c>
+      <c r="C176">
+        <v>190</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>718</v>
+      </c>
+      <c r="B177">
+        <v>3.80036</v>
+      </c>
+      <c r="C177">
+        <v>190</v>
+      </c>
+      <c r="D177">
+        <v>180</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>719</v>
+      </c>
+      <c r="B178">
+        <v>5.4219999999999997E-3</v>
+      </c>
+      <c r="C178">
+        <v>190</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>720</v>
+      </c>
+      <c r="B179">
+        <v>5.3119999999999999E-3</v>
+      </c>
+      <c r="C179">
+        <v>190</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>721</v>
+      </c>
+      <c r="B180">
+        <v>2.837904</v>
+      </c>
+      <c r="C180">
+        <v>190</v>
+      </c>
+      <c r="D180">
+        <v>78</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>722</v>
+      </c>
+      <c r="B181">
+        <v>2.0026980000000001</v>
+      </c>
+      <c r="C181">
+        <v>190</v>
+      </c>
+      <c r="D181">
+        <v>54</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>723</v>
+      </c>
+      <c r="B182">
+        <v>5.4669999999999996E-3</v>
+      </c>
+      <c r="C182">
+        <v>190</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>724</v>
+      </c>
+      <c r="B183">
+        <v>6.1110000000000001E-3</v>
+      </c>
+      <c r="C183">
+        <v>190</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>725</v>
+      </c>
+      <c r="B184">
+        <v>4.8789999999999997E-3</v>
+      </c>
+      <c r="C184">
+        <v>190</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>726</v>
+      </c>
+      <c r="B185">
+        <v>4.9389999999999998E-3</v>
+      </c>
+      <c r="C185">
+        <v>190</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>727</v>
+      </c>
+      <c r="B186">
+        <v>1.2075000000000001E-2</v>
+      </c>
+      <c r="C186">
+        <v>190</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>728</v>
+      </c>
+      <c r="B187">
+        <v>7.3810000000000004E-3</v>
+      </c>
+      <c r="C187">
+        <v>190</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>729</v>
+      </c>
+      <c r="B188">
+        <v>6.6530000000000001E-3</v>
+      </c>
+      <c r="C188">
+        <v>190</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>730</v>
+      </c>
+      <c r="B189">
+        <v>5.8859999999999997E-3</v>
+      </c>
+      <c r="C189">
+        <v>190</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>731</v>
+      </c>
+      <c r="B190">
+        <v>4.0215690000000004</v>
+      </c>
+      <c r="C190">
+        <v>190</v>
+      </c>
+      <c r="D190">
+        <v>180</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>732</v>
+      </c>
+      <c r="B191">
+        <v>6.3559999999999997E-3</v>
+      </c>
+      <c r="C191">
+        <v>190</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>733</v>
+      </c>
+      <c r="B192">
+        <v>5.8409999999999998E-3</v>
+      </c>
+      <c r="C192">
+        <v>190</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>734</v>
+      </c>
+      <c r="B193">
+        <v>6.548E-3</v>
+      </c>
+      <c r="C193">
+        <v>190</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>735</v>
+      </c>
+      <c r="B194">
+        <v>4.1472980000000002</v>
+      </c>
+      <c r="C194">
+        <v>190</v>
+      </c>
+      <c r="D194">
+        <v>180</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>736</v>
+      </c>
+      <c r="B195">
+        <v>5.4489999999999999E-3</v>
+      </c>
+      <c r="C195">
+        <v>190</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>737</v>
+      </c>
+      <c r="B196">
+        <v>4.2201820000000003</v>
+      </c>
+      <c r="C196">
+        <v>190</v>
+      </c>
+      <c r="D196">
+        <v>180</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>738</v>
+      </c>
+      <c r="B197">
+        <v>5.0600000000000003E-3</v>
+      </c>
+      <c r="C197">
+        <v>190</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>739</v>
+      </c>
+      <c r="B198">
+        <v>5.7080000000000004E-3</v>
+      </c>
+      <c r="C198">
+        <v>190</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>